--- a/Restaurant Sales Project/pizza place sales dashboard.xlsx
+++ b/Restaurant Sales Project/pizza place sales dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-sql/Restaurant Sales Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FAE36C-0850-46C1-B0B5-EF75EED538E5}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE505CB6-0AF7-41DE-9C89-0A3B9DEBC97F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="data_1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="data_2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="pizza_place_dashboard" sheetId="3" r:id="rId3"/>
-    <sheet name="data_3" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="data_3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data_3!$A$1:$F$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">data_3!$A$1:$F$385</definedName>
     <definedName name="category">data_1!$A$2:$A$33</definedName>
     <definedName name="ingredients">data_1!$D$2:$D$33</definedName>
     <definedName name="month">data_3!$E$2:$E$385</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="146">
   <si>
     <t>category</t>
   </si>
@@ -491,6 +492,21 @@
   </si>
   <si>
     <t>Select a month:</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five or more</t>
   </si>
 </sst>
 </file>
@@ -1436,20 +1452,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1878,20 +1880,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2186,14 +2174,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total revenue</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Number of Pizzas per Order </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by pizza category</a:t>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (Percentage) </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2229,201 +2222,80 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="91000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-ED85-4F6B-A47A-FBD46C5E8976}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0">
-                  <a:alpha val="77000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-ED85-4F6B-A47A-FBD46C5E8976}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-ED85-4F6B-A47A-FBD46C5E8976}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="93000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-ED85-4F6B-A47A-FBD46C5E8976}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>data_2!$E$29:$E$32</c:f>
+              <c:f>Sheet1!$A$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Classic</c:v>
+                  <c:v>One</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Supreme</c:v>
+                  <c:v>Two</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Chicken</c:v>
+                  <c:v>Three</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Veggie</c:v>
+                  <c:v>Four</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Five or more</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_2!$F$29:$F$32</c:f>
+              <c:f>Sheet1!$A$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>220053.1</c:v>
+                  <c:v>37.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208197</c:v>
+                  <c:v>28.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195919.5</c:v>
+                  <c:v>15.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193690.45</c:v>
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-ED85-4F6B-A47A-FBD46C5E8976}"/>
+              <c16:uniqueId val="{00000008-7AB0-4B90-85EF-9F0379A3518B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2434,10 +2306,157 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:axId val="246651359"/>
+        <c:axId val="246669119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="246651359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246669119"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246669119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Total Orders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246651359"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2446,37 +2465,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2614,6 +2602,7 @@
             <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="75000"/>
+                <a:alpha val="84000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2761,8 +2750,145 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4360269360269364E-2"/>
+                  <c:y val="-8.0983887430737825E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4871-4DDB-8962-2E0D8D988614}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.436026936026944E-2"/>
+                  <c:y val="-6.2465368912219307E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4871-4DDB-8962-2E0D8D988614}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2255892255892408E-2"/>
+                  <c:y val="-9.487277631962672E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4871-4DDB-8962-2E0D8D988614}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,###" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_2!$E$36:$E$47</c:f>
@@ -2933,12 +3059,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2989,7 +3110,7 @@
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -5325,13 +5446,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -5475,10 +5596,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6705,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6810,7 +6927,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -6825,12 +6942,12 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="str" cm="1">
         <f t="array" ref="B25">_xlfn.XLOOKUP(D22&amp;LARGE(_xlfn._xlws.FILTER(sales,month=D22),1),month&amp;sales,pizzatype)</f>
-        <v>The Pepperoni Pizza</v>
+        <v>The Hawaiian Pizza</v>
       </c>
       <c r="C25" s="18"/>
       <c r="F25" s="18" cm="1">
         <f t="array" ref="F25">_xlfn.XLOOKUP(D22&amp;B25,month&amp;pizzatype,sales)</f>
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G25" s="19"/>
     </row>
@@ -6849,7 +6966,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="str">
         <f>VLOOKUP(B25,data_1!C2:D33,2,0)</f>
-        <v>Mozzarella Cheese, Pepperoni</v>
+        <v>Sliced Ham, Pineapple, Mozzarella Cheese</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -6966,6 +7083,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C4826-CD24-4784-A38E-1555C2C7A3B0}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>37.99</v>
+      </c>
+      <c r="B2">
+        <v>28.81</v>
+      </c>
+      <c r="C2">
+        <v>15.02</v>
+      </c>
+      <c r="D2">
+        <v>14.62</v>
+      </c>
+      <c r="E2">
+        <v>3.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA1C2A-DE87-4517-B2ED-FAF2024B8244}">
   <dimension ref="A1:I385"/>
   <sheetViews>

--- a/Restaurant Sales Project/pizza place sales dashboard.xlsx
+++ b/Restaurant Sales Project/pizza place sales dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-sql/Restaurant Sales Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE505CB6-0AF7-41DE-9C89-0A3B9DEBC97F}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5195E0E-EB2C-4DAC-856D-1825C948A08C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data_1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="data_2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="pizza_place_dashboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="data_3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="149">
   <si>
     <t>category</t>
   </si>
@@ -317,13 +317,7 @@
     <t>The Brie Carre Pizza</t>
   </si>
   <si>
-    <t>Pizza Name</t>
-  </si>
-  <si>
     <t>Total Orders</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
   </si>
   <si>
     <t>total_revenue</t>
@@ -485,15 +479,6 @@
     <t>month_name</t>
   </si>
   <si>
-    <t>Most popular pizza type by month</t>
-  </si>
-  <si>
-    <t>Total Ordered</t>
-  </si>
-  <si>
-    <t>Select a month:</t>
-  </si>
-  <si>
     <t>One</t>
   </si>
   <si>
@@ -507,6 +492,30 @@
   </si>
   <si>
     <t>Five or more</t>
+  </si>
+  <si>
+    <t>week_day</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>avg_pizzas</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,12 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1064,7 +1067,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1072,14 +1075,13 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1097,12 +1099,12 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1198,7 +1200,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Orders By Day of Week</a:t>
+              <a:t>Average orders by day of week</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2174,370 +2176,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Number of Pizzas per Order </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> (Percentage) </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>One</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Two</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Three</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Five or more</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>37.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7AB0-4B90-85EF-9F0379A3518B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="246651359"/>
-        <c:axId val="246669119"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="246651359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="246669119"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="246669119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>% of Total Orders</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="246651359"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Revenue</a:t>
             </a:r>
@@ -3238,6 +2876,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Number of pizzas per order </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (Percentage) </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>One</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Two</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Three</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Four</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Five or more</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F986-49A9-9F10-5A45399F2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="246651359"/>
+        <c:axId val="246669119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="246651359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246669119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246669119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Total Orders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246651359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>Average number of pizzas sold</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0"/>
+              <a:t>By size and day of week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCE1-432B-B8D1-640E470AB3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1279635168"/>
+        <c:axId val="1279634688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1279635168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279634688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279634688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279635168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F98-4015-BBC0-C74C91F95CFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1279635168"/>
+        <c:axId val="1279634688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1279635168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279634688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279634688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279635168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3359,6 +3989,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4420,6 +5130,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4938,7 +6151,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5445,16 +7161,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5484,15 +7200,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5521,44 +7237,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B70416-DD70-433A-B5D2-92BD1A7AD0DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -5566,7 +7244,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -5589,13 +7267,205 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337665FD-9D91-4268-89AE-96540393214E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B5E2AD-C0DD-48A9-AF46-1E7F3202CD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12873800-C7AE-B2FF-C671-186B73323458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511040" y="4511040"/>
+          <a:ext cx="937260" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>Select a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t> day: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64378F8C-F968-9A43-446B-96AD3D5C51A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6546,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -6559,7 +8429,7 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>220053.1</v>
       </c>
     </row>
@@ -6573,7 +8443,7 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>208197</v>
       </c>
     </row>
@@ -6587,7 +8457,7 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>195919.5</v>
       </c>
     </row>
@@ -6601,7 +8471,7 @@
       <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>193690.45</v>
       </c>
     </row>
@@ -6629,13 +8499,13 @@
         <v>5.39</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -6646,12 +8516,12 @@
         <v>6.54</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="10">
+        <v>84</v>
+      </c>
+      <c r="F36" s="9">
         <v>69793.3</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>1845</v>
       </c>
     </row>
@@ -6663,12 +8533,12 @@
         <v>6.72</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="10">
+        <v>85</v>
+      </c>
+      <c r="F37" s="9">
         <v>65159.6</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>1685</v>
       </c>
     </row>
@@ -6680,12 +8550,12 @@
         <v>5.63</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="10">
+        <v>86</v>
+      </c>
+      <c r="F38" s="9">
         <v>70397.100000000006</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>1840</v>
       </c>
     </row>
@@ -6697,12 +8567,12 @@
         <v>4.66</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="10">
+        <v>87</v>
+      </c>
+      <c r="F39" s="9">
         <v>68736.800000000003</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>1799</v>
       </c>
     </row>
@@ -6714,12 +8584,12 @@
         <v>3.51</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="10">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9">
         <v>71402.75</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>1853</v>
       </c>
     </row>
@@ -6731,12 +8601,12 @@
         <v>2.4</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="10">
+        <v>89</v>
+      </c>
+      <c r="F41" s="9">
         <v>68230.2</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>1773</v>
       </c>
     </row>
@@ -6748,67 +8618,67 @@
         <v>1.08</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="10">
+        <v>90</v>
+      </c>
+      <c r="F42" s="9">
         <v>72557.899999999994</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>1935</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="10">
+        <v>91</v>
+      </c>
+      <c r="F43" s="9">
         <v>68278.25</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>1841</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="10">
+        <v>92</v>
+      </c>
+      <c r="F44" s="9">
         <v>64180.05</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>1661</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="10">
+        <v>93</v>
+      </c>
+      <c r="F45" s="9">
         <v>64027.6</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>1646</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="10">
+        <v>94</v>
+      </c>
+      <c r="F46" s="9">
         <v>70395.350000000006</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>1792</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="10">
+        <v>95</v>
+      </c>
+      <c r="F47" s="9">
         <v>64701.15</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>1680</v>
       </c>
     </row>
@@ -6820,212 +8690,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="8"/>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="str" cm="1">
-        <f t="array" ref="B25">_xlfn.XLOOKUP(D22&amp;LARGE(_xlfn._xlws.FILTER(sales,month=D22),1),month&amp;sales,pizzatype)</f>
-        <v>The Hawaiian Pizza</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="F25" s="18" cm="1">
-        <f t="array" ref="F25">_xlfn.XLOOKUP(D22&amp;B25,month&amp;pizzatype,sales)</f>
-        <v>209</v>
-      </c>
-      <c r="G25" s="19"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="str">
-        <f>VLOOKUP(B25,data_1!C2:D33,2,0)</f>
-        <v>Sliced Ham, Pineapple, Mozzarella Cheese</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7033,35 +8900,45 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7072,9 +8949,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>data_3!$I$2:$I$13</xm:f>
+            <xm:f>Sheet1!$L$2:$L$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>I25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7084,35 +8961,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C4826-CD24-4784-A38E-1555C2C7A3B0}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M2" sqref="M2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>37.99</v>
       </c>
@@ -7128,9 +9029,526 @@
       <c r="E2">
         <v>3.55</v>
       </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N2">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O2">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P2">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O3">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P3">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N4">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P4">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N5">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N6">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O6">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O7">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P7">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,M$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>47</v>
+      </c>
+      <c r="N8">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,N$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,O$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>64</v>
+      </c>
+      <c r="P8">
+        <f>SUMIFS($J$2:$J$36,$I$2:$I$36,P$1,$H$2:$H$36,pizza_place_dashboard!$I$25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7153,22 +9571,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7176,7 +9594,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -7204,7 +9622,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -7231,7 +9649,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -7258,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -7285,7 +9703,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -7312,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -7339,7 +9757,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -7366,7 +9784,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
@@ -7393,7 +9811,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7420,7 +9838,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -7447,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
@@ -7474,7 +9892,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -7501,7 +9919,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -7525,7 +9943,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
@@ -7549,7 +9967,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -7573,7 +9991,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -7597,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7621,7 +10039,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -7645,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -7669,7 +10087,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -7693,7 +10111,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -7717,7 +10135,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
@@ -7741,7 +10159,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -7765,7 +10183,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
         <v>78</v>
@@ -7789,7 +10207,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -7813,7 +10231,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -7837,7 +10255,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
@@ -7861,7 +10279,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -7885,7 +10303,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -7909,7 +10327,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
@@ -7933,7 +10351,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>79</v>
@@ -7957,7 +10375,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
@@ -7981,7 +10399,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
         <v>53</v>
@@ -8005,7 +10423,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
@@ -8029,7 +10447,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
@@ -8053,7 +10471,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -8077,7 +10495,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -8101,7 +10519,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -8125,7 +10543,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
@@ -8149,7 +10567,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -8173,7 +10591,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>58</v>
@@ -8197,7 +10615,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -8221,7 +10639,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -8245,7 +10663,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -8269,7 +10687,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -8293,7 +10711,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -8317,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -8341,7 +10759,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
         <v>70</v>
@@ -8365,7 +10783,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -8389,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
@@ -8413,7 +10831,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
@@ -8437,7 +10855,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -8461,7 +10879,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -8485,7 +10903,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -8509,7 +10927,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
@@ -8533,7 +10951,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -8557,7 +10975,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
         <v>79</v>
@@ -8581,7 +10999,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
@@ -8605,7 +11023,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -8629,7 +11047,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
         <v>77</v>
@@ -8653,7 +11071,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -8677,7 +11095,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
@@ -8701,7 +11119,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
         <v>80</v>
@@ -8725,7 +11143,7 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
         <v>81</v>
@@ -8749,7 +11167,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
@@ -8773,7 +11191,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
@@ -8797,7 +11215,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
         <v>54</v>
@@ -8821,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
@@ -8845,7 +11263,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
         <v>55</v>
@@ -8869,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>53</v>
@@ -8893,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>59</v>
@@ -8917,7 +11335,7 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -8941,7 +11359,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
         <v>57</v>
@@ -8965,7 +11383,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>60</v>
@@ -8989,7 +11407,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>56</v>
@@ -9013,7 +11431,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>61</v>
@@ -9037,7 +11455,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
         <v>62</v>
@@ -9061,7 +11479,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
         <v>67</v>
@@ -9085,7 +11503,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
         <v>63</v>
@@ -9109,7 +11527,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
@@ -9133,7 +11551,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
         <v>70</v>
@@ -9157,7 +11575,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
         <v>66</v>
@@ -9181,7 +11599,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -9205,7 +11623,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
         <v>71</v>
@@ -9229,7 +11647,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
         <v>69</v>
@@ -9253,7 +11671,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
@@ -9277,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>73</v>
@@ -9301,7 +11719,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>76</v>
@@ -9325,7 +11743,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
         <v>72</v>
@@ -9349,7 +11767,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
         <v>74</v>
@@ -9373,7 +11791,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>75</v>
@@ -9397,7 +11815,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>80</v>
@@ -9421,7 +11839,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
         <v>77</v>
@@ -9445,7 +11863,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
         <v>78</v>
@@ -9469,7 +11887,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
         <v>79</v>
@@ -9493,7 +11911,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
         <v>81</v>
@@ -9517,7 +11935,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
         <v>52</v>
@@ -9541,7 +11959,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>50</v>
@@ -9565,7 +11983,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
@@ -9589,7 +12007,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
         <v>54</v>
@@ -9613,7 +12031,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>55</v>
@@ -9637,7 +12055,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
         <v>61</v>
@@ -9661,7 +12079,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>53</v>
@@ -9685,7 +12103,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C105" t="s">
         <v>58</v>
@@ -9709,7 +12127,7 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>60</v>
@@ -9733,7 +12151,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>56</v>
@@ -9757,7 +12175,7 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>57</v>
@@ -9781,7 +12199,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
         <v>69</v>
@@ -9805,7 +12223,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
         <v>59</v>
@@ -9829,7 +12247,7 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
         <v>62</v>
@@ -9853,7 +12271,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
         <v>66</v>
@@ -9877,7 +12295,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -9901,7 +12319,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -9925,7 +12343,7 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
         <v>67</v>
@@ -9949,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
@@ -9973,7 +12391,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>71</v>
@@ -9997,7 +12415,7 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
         <v>65</v>
@@ -10021,7 +12439,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C119" t="s">
         <v>70</v>
@@ -10045,7 +12463,7 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
         <v>77</v>
@@ -10069,7 +12487,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
         <v>75</v>
@@ -10093,7 +12511,7 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
         <v>74</v>
@@ -10117,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>78</v>
@@ -10141,7 +12559,7 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C124" t="s">
         <v>79</v>
@@ -10165,7 +12583,7 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
         <v>72</v>
@@ -10189,7 +12607,7 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
         <v>80</v>
@@ -10213,7 +12631,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>73</v>
@@ -10237,7 +12655,7 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>76</v>
@@ -10261,7 +12679,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
         <v>81</v>
@@ -10285,7 +12703,7 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C130" t="s">
         <v>53</v>
@@ -10309,7 +12727,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C131" t="s">
         <v>51</v>
@@ -10333,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C132" t="s">
         <v>50</v>
@@ -10357,7 +12775,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" t="s">
         <v>55</v>
@@ -10381,7 +12799,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C134" t="s">
         <v>52</v>
@@ -10405,7 +12823,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C135" t="s">
         <v>54</v>
@@ -10429,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
         <v>59</v>
@@ -10453,7 +12871,7 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C137" t="s">
         <v>57</v>
@@ -10477,7 +12895,7 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
         <v>60</v>
@@ -10501,7 +12919,7 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C139" t="s">
         <v>61</v>
@@ -10525,7 +12943,7 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C140" t="s">
         <v>58</v>
@@ -10549,7 +12967,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C141" t="s">
         <v>56</v>
@@ -10573,7 +12991,7 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C142" t="s">
         <v>67</v>
@@ -10597,7 +13015,7 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
         <v>70</v>
@@ -10621,7 +13039,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
         <v>69</v>
@@ -10645,7 +13063,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
         <v>71</v>
@@ -10669,7 +13087,7 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -10693,7 +13111,7 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
@@ -10717,7 +13135,7 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C148" t="s">
         <v>66</v>
@@ -10741,7 +13159,7 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C149" t="s">
         <v>65</v>
@@ -10765,7 +13183,7 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C150" t="s">
         <v>62</v>
@@ -10789,7 +13207,7 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
         <v>63</v>
@@ -10813,7 +13231,7 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
         <v>76</v>
@@ -10837,7 +13255,7 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C153" t="s">
         <v>80</v>
@@ -10861,7 +13279,7 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
         <v>72</v>
@@ -10885,7 +13303,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
         <v>74</v>
@@ -10909,7 +13327,7 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
         <v>77</v>
@@ -10933,7 +13351,7 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" t="s">
         <v>73</v>
@@ -10957,7 +13375,7 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C158" t="s">
         <v>78</v>
@@ -10981,7 +13399,7 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C159" t="s">
         <v>79</v>
@@ -11005,7 +13423,7 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
         <v>75</v>
@@ -11029,7 +13447,7 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
         <v>81</v>
@@ -11053,7 +13471,7 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C162" t="s">
         <v>55</v>
@@ -11077,7 +13495,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C163" t="s">
         <v>50</v>
@@ -11101,7 +13519,7 @@
         <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C164" t="s">
         <v>51</v>
@@ -11125,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C165" t="s">
         <v>52</v>
@@ -11149,7 +13567,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C166" t="s">
         <v>54</v>
@@ -11173,7 +13591,7 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C167" t="s">
         <v>61</v>
@@ -11197,7 +13615,7 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C168" t="s">
         <v>56</v>
@@ -11221,7 +13639,7 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C169" t="s">
         <v>57</v>
@@ -11245,7 +13663,7 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s">
         <v>53</v>
@@ -11269,7 +13687,7 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
         <v>60</v>
@@ -11293,7 +13711,7 @@
         <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C172" t="s">
         <v>58</v>
@@ -11317,7 +13735,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
@@ -11341,7 +13759,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C174" t="s">
         <v>59</v>
@@ -11365,7 +13783,7 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175" t="s">
         <v>66</v>
@@ -11389,7 +13807,7 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C176" t="s">
         <v>71</v>
@@ -11413,7 +13831,7 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -11437,7 +13855,7 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C178" t="s">
         <v>70</v>
@@ -11461,7 +13879,7 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C179" t="s">
         <v>62</v>
@@ -11485,7 +13903,7 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -11509,7 +13927,7 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C181" t="s">
         <v>67</v>
@@ -11533,7 +13951,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C182" t="s">
         <v>69</v>
@@ -11557,7 +13975,7 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C183" t="s">
         <v>65</v>
@@ -11581,7 +13999,7 @@
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
         <v>79</v>
@@ -11605,7 +14023,7 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
         <v>76</v>
@@ -11629,7 +14047,7 @@
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C186" t="s">
         <v>72</v>
@@ -11653,7 +14071,7 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C187" t="s">
         <v>77</v>
@@ -11677,7 +14095,7 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C188" t="s">
         <v>78</v>
@@ -11701,7 +14119,7 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
         <v>73</v>
@@ -11725,7 +14143,7 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
         <v>75</v>
@@ -11749,7 +14167,7 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C191" t="s">
         <v>80</v>
@@ -11773,7 +14191,7 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C192" t="s">
         <v>74</v>
@@ -11797,7 +14215,7 @@
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C193" t="s">
         <v>81</v>
@@ -11821,7 +14239,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C194" t="s">
         <v>50</v>
@@ -11845,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C195" t="s">
         <v>53</v>
@@ -11869,7 +14287,7 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C196" t="s">
         <v>54</v>
@@ -11893,7 +14311,7 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C197" t="s">
         <v>51</v>
@@ -11917,7 +14335,7 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C198" t="s">
         <v>52</v>
@@ -11941,7 +14359,7 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C199" t="s">
         <v>57</v>
@@ -11965,7 +14383,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C200" t="s">
         <v>55</v>
@@ -11989,7 +14407,7 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C201" t="s">
         <v>59</v>
@@ -12013,7 +14431,7 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C202" t="s">
         <v>58</v>
@@ -12037,7 +14455,7 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C203" t="s">
         <v>60</v>
@@ -12061,7 +14479,7 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C204" t="s">
         <v>56</v>
@@ -12085,7 +14503,7 @@
         <v>16</v>
       </c>
       <c r="B205" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -12109,7 +14527,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C206" t="s">
         <v>61</v>
@@ -12133,7 +14551,7 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C207" t="s">
         <v>62</v>
@@ -12157,7 +14575,7 @@
         <v>16</v>
       </c>
       <c r="B208" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
         <v>70</v>
@@ -12181,7 +14599,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -12205,7 +14623,7 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C210" t="s">
         <v>65</v>
@@ -12229,7 +14647,7 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C211" t="s">
         <v>67</v>
@@ -12253,7 +14671,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C212" t="s">
         <v>71</v>
@@ -12277,7 +14695,7 @@
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C213" t="s">
         <v>66</v>
@@ -12301,7 +14719,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C214" t="s">
         <v>64</v>
@@ -12325,7 +14743,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C215" t="s">
         <v>69</v>
@@ -12349,7 +14767,7 @@
         <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C216" t="s">
         <v>72</v>
@@ -12373,7 +14791,7 @@
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C217" t="s">
         <v>80</v>
@@ -12397,7 +14815,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C218" t="s">
         <v>75</v>
@@ -12421,7 +14839,7 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C219" t="s">
         <v>77</v>
@@ -12445,7 +14863,7 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C220" t="s">
         <v>78</v>
@@ -12469,7 +14887,7 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C221" t="s">
         <v>79</v>
@@ -12493,7 +14911,7 @@
         <v>16</v>
       </c>
       <c r="B222" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C222" t="s">
         <v>76</v>
@@ -12517,7 +14935,7 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C223" t="s">
         <v>73</v>
@@ -12541,7 +14959,7 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C224" t="s">
         <v>74</v>
@@ -12565,7 +14983,7 @@
         <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C225" t="s">
         <v>81</v>
@@ -12589,7 +15007,7 @@
         <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C226" t="s">
         <v>55</v>
@@ -12613,7 +15031,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C227" t="s">
         <v>53</v>
@@ -12637,7 +15055,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C228" t="s">
         <v>50</v>
@@ -12661,7 +15079,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C229" t="s">
         <v>52</v>
@@ -12685,7 +15103,7 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C230" t="s">
         <v>51</v>
@@ -12709,7 +15127,7 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C231" t="s">
         <v>54</v>
@@ -12733,7 +15151,7 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C232" t="s">
         <v>58</v>
@@ -12757,7 +15175,7 @@
         <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C233" t="s">
         <v>61</v>
@@ -12781,7 +15199,7 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C234" t="s">
         <v>56</v>
@@ -12805,7 +15223,7 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C235" t="s">
         <v>59</v>
@@ -12829,7 +15247,7 @@
         <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C236" t="s">
         <v>57</v>
@@ -12853,7 +15271,7 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C237" t="s">
         <v>67</v>
@@ -12877,7 +15295,7 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C238" t="s">
         <v>60</v>
@@ -12901,7 +15319,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C239" t="s">
         <v>64</v>
@@ -12925,7 +15343,7 @@
         <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C240" t="s">
         <v>71</v>
@@ -12949,7 +15367,7 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C241" t="s">
         <v>63</v>
@@ -12973,7 +15391,7 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C242" t="s">
         <v>62</v>
@@ -12997,7 +15415,7 @@
         <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C243" t="s">
         <v>65</v>
@@ -13021,7 +15439,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C244" t="s">
         <v>68</v>
@@ -13045,7 +15463,7 @@
         <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C245" t="s">
         <v>70</v>
@@ -13069,7 +15487,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C246" t="s">
         <v>69</v>
@@ -13093,7 +15511,7 @@
         <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C247" t="s">
         <v>66</v>
@@ -13117,7 +15535,7 @@
         <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C248" t="s">
         <v>76</v>
@@ -13141,7 +15559,7 @@
         <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C249" t="s">
         <v>78</v>
@@ -13165,7 +15583,7 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C250" t="s">
         <v>73</v>
@@ -13189,7 +15607,7 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C251" t="s">
         <v>75</v>
@@ -13213,7 +15631,7 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C252" t="s">
         <v>72</v>
@@ -13237,7 +15655,7 @@
         <v>11</v>
       </c>
       <c r="B253" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C253" t="s">
         <v>77</v>
@@ -13261,7 +15679,7 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C254" t="s">
         <v>74</v>
@@ -13285,7 +15703,7 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C255" t="s">
         <v>80</v>
@@ -13309,7 +15727,7 @@
         <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C256" t="s">
         <v>79</v>
@@ -13333,7 +15751,7 @@
         <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C257" t="s">
         <v>81</v>
@@ -13357,7 +15775,7 @@
         <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C258" t="s">
         <v>50</v>
@@ -13381,7 +15799,7 @@
         <v>5</v>
       </c>
       <c r="B259" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C259" t="s">
         <v>54</v>
@@ -13405,7 +15823,7 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C260" t="s">
         <v>53</v>
@@ -13429,7 +15847,7 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C261" t="s">
         <v>52</v>
@@ -13453,7 +15871,7 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C262" t="s">
         <v>51</v>
@@ -13477,7 +15895,7 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C263" t="s">
         <v>55</v>
@@ -13501,7 +15919,7 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C264" t="s">
         <v>58</v>
@@ -13525,7 +15943,7 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C265" t="s">
         <v>60</v>
@@ -13549,7 +15967,7 @@
         <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C266" t="s">
         <v>56</v>
@@ -13573,7 +15991,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C267" t="s">
         <v>59</v>
@@ -13597,7 +16015,7 @@
         <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C268" t="s">
         <v>61</v>
@@ -13621,7 +16039,7 @@
         <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C269" t="s">
         <v>57</v>
@@ -13645,7 +16063,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C270" t="s">
         <v>71</v>
@@ -13669,7 +16087,7 @@
         <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C271" t="s">
         <v>64</v>
@@ -13693,7 +16111,7 @@
         <v>16</v>
       </c>
       <c r="B272" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C272" t="s">
         <v>70</v>
@@ -13717,7 +16135,7 @@
         <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C273" t="s">
         <v>65</v>
@@ -13741,7 +16159,7 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C274" t="s">
         <v>67</v>
@@ -13765,7 +16183,7 @@
         <v>3</v>
       </c>
       <c r="B275" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C275" t="s">
         <v>68</v>
@@ -13789,7 +16207,7 @@
         <v>16</v>
       </c>
       <c r="B276" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C276" t="s">
         <v>62</v>
@@ -13813,7 +16231,7 @@
         <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C277" t="s">
         <v>69</v>
@@ -13837,7 +16255,7 @@
         <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C278" t="s">
         <v>66</v>
@@ -13861,7 +16279,7 @@
         <v>16</v>
       </c>
       <c r="B279" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C279" t="s">
         <v>63</v>
@@ -13885,7 +16303,7 @@
         <v>16</v>
       </c>
       <c r="B280" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C280" t="s">
         <v>72</v>
@@ -13909,7 +16327,7 @@
         <v>16</v>
       </c>
       <c r="B281" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C281" t="s">
         <v>76</v>
@@ -13933,7 +16351,7 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C282" t="s">
         <v>75</v>
@@ -13957,7 +16375,7 @@
         <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C283" t="s">
         <v>73</v>
@@ -13981,7 +16399,7 @@
         <v>16</v>
       </c>
       <c r="B284" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C284" t="s">
         <v>80</v>
@@ -14005,7 +16423,7 @@
         <v>16</v>
       </c>
       <c r="B285" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C285" t="s">
         <v>74</v>
@@ -14029,7 +16447,7 @@
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C286" t="s">
         <v>78</v>
@@ -14053,7 +16471,7 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C287" t="s">
         <v>79</v>
@@ -14077,7 +16495,7 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C288" t="s">
         <v>77</v>
@@ -14101,7 +16519,7 @@
         <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C289" t="s">
         <v>81</v>
@@ -14125,7 +16543,7 @@
         <v>3</v>
       </c>
       <c r="B290" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C290" t="s">
         <v>53</v>
@@ -14149,7 +16567,7 @@
         <v>3</v>
       </c>
       <c r="B291" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C291" t="s">
         <v>50</v>
@@ -14173,7 +16591,7 @@
         <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C292" t="s">
         <v>54</v>
@@ -14197,7 +16615,7 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C293" t="s">
         <v>52</v>
@@ -14221,7 +16639,7 @@
         <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C294" t="s">
         <v>60</v>
@@ -14245,7 +16663,7 @@
         <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C295" t="s">
         <v>56</v>
@@ -14269,7 +16687,7 @@
         <v>5</v>
       </c>
       <c r="B296" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C296" t="s">
         <v>51</v>
@@ -14293,7 +16711,7 @@
         <v>5</v>
       </c>
       <c r="B297" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C297" t="s">
         <v>55</v>
@@ -14317,7 +16735,7 @@
         <v>5</v>
       </c>
       <c r="B298" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C298" t="s">
         <v>58</v>
@@ -14341,7 +16759,7 @@
         <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C299" t="s">
         <v>57</v>
@@ -14365,7 +16783,7 @@
         <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C300" t="s">
         <v>59</v>
@@ -14389,7 +16807,7 @@
         <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C301" t="s">
         <v>61</v>
@@ -14413,7 +16831,7 @@
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C302" t="s">
         <v>65</v>
@@ -14437,7 +16855,7 @@
         <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C303" t="s">
         <v>64</v>
@@ -14461,7 +16879,7 @@
         <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C304" t="s">
         <v>66</v>
@@ -14485,7 +16903,7 @@
         <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C305" t="s">
         <v>70</v>
@@ -14509,7 +16927,7 @@
         <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C306" t="s">
         <v>63</v>
@@ -14533,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="B307" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C307" t="s">
         <v>69</v>
@@ -14557,7 +16975,7 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C308" t="s">
         <v>68</v>
@@ -14581,7 +16999,7 @@
         <v>3</v>
       </c>
       <c r="B309" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C309" t="s">
         <v>71</v>
@@ -14605,7 +17023,7 @@
         <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C310" t="s">
         <v>62</v>
@@ -14629,7 +17047,7 @@
         <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C311" t="s">
         <v>77</v>
@@ -14653,7 +17071,7 @@
         <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C312" t="s">
         <v>67</v>
@@ -14677,7 +17095,7 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C313" t="s">
         <v>72</v>
@@ -14701,7 +17119,7 @@
         <v>16</v>
       </c>
       <c r="B314" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C314" t="s">
         <v>74</v>
@@ -14725,7 +17143,7 @@
         <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C315" t="s">
         <v>79</v>
@@ -14749,7 +17167,7 @@
         <v>5</v>
       </c>
       <c r="B316" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C316" t="s">
         <v>73</v>
@@ -14773,7 +17191,7 @@
         <v>11</v>
       </c>
       <c r="B317" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C317" t="s">
         <v>78</v>
@@ -14797,7 +17215,7 @@
         <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C318" t="s">
         <v>75</v>
@@ -14821,7 +17239,7 @@
         <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C319" t="s">
         <v>80</v>
@@ -14845,7 +17263,7 @@
         <v>16</v>
       </c>
       <c r="B320" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C320" t="s">
         <v>76</v>
@@ -14869,7 +17287,7 @@
         <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C321" t="s">
         <v>81</v>
@@ -14893,7 +17311,7 @@
         <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C322" t="s">
         <v>52</v>
@@ -14917,7 +17335,7 @@
         <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C323" t="s">
         <v>51</v>
@@ -14941,7 +17359,7 @@
         <v>3</v>
       </c>
       <c r="B324" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C324" t="s">
         <v>50</v>
@@ -14965,7 +17383,7 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C325" t="s">
         <v>55</v>
@@ -14989,7 +17407,7 @@
         <v>5</v>
       </c>
       <c r="B326" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C326" t="s">
         <v>54</v>
@@ -15013,7 +17431,7 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C327" t="s">
         <v>53</v>
@@ -15037,7 +17455,7 @@
         <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C328" t="s">
         <v>56</v>
@@ -15061,7 +17479,7 @@
         <v>3</v>
       </c>
       <c r="B329" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C329" t="s">
         <v>59</v>
@@ -15085,7 +17503,7 @@
         <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C330" t="s">
         <v>61</v>
@@ -15109,7 +17527,7 @@
         <v>5</v>
       </c>
       <c r="B331" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C331" t="s">
         <v>58</v>
@@ -15133,7 +17551,7 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C332" t="s">
         <v>57</v>
@@ -15157,7 +17575,7 @@
         <v>16</v>
       </c>
       <c r="B333" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C333" t="s">
         <v>63</v>
@@ -15181,7 +17599,7 @@
         <v>16</v>
       </c>
       <c r="B334" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C334" t="s">
         <v>60</v>
@@ -15205,7 +17623,7 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C335" t="s">
         <v>69</v>
@@ -15229,7 +17647,7 @@
         <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C336" t="s">
         <v>66</v>
@@ -15253,7 +17671,7 @@
         <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C337" t="s">
         <v>65</v>
@@ -15277,7 +17695,7 @@
         <v>16</v>
       </c>
       <c r="B338" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C338" t="s">
         <v>62</v>
@@ -15301,7 +17719,7 @@
         <v>16</v>
       </c>
       <c r="B339" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C339" t="s">
         <v>67</v>
@@ -15325,7 +17743,7 @@
         <v>3</v>
       </c>
       <c r="B340" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C340" t="s">
         <v>64</v>
@@ -15349,7 +17767,7 @@
         <v>3</v>
       </c>
       <c r="B341" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C341" t="s">
         <v>68</v>
@@ -15373,7 +17791,7 @@
         <v>16</v>
       </c>
       <c r="B342" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C342" t="s">
         <v>70</v>
@@ -15397,7 +17815,7 @@
         <v>16</v>
       </c>
       <c r="B343" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C343" t="s">
         <v>76</v>
@@ -15421,7 +17839,7 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C344" t="s">
         <v>79</v>
@@ -15445,7 +17863,7 @@
         <v>5</v>
       </c>
       <c r="B345" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C345" t="s">
         <v>73</v>
@@ -15469,7 +17887,7 @@
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C346" t="s">
         <v>71</v>
@@ -15493,7 +17911,7 @@
         <v>16</v>
       </c>
       <c r="B347" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C347" t="s">
         <v>80</v>
@@ -15517,7 +17935,7 @@
         <v>5</v>
       </c>
       <c r="B348" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C348" t="s">
         <v>75</v>
@@ -15541,7 +17959,7 @@
         <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C349" t="s">
         <v>78</v>
@@ -15565,7 +17983,7 @@
         <v>16</v>
       </c>
       <c r="B350" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C350" t="s">
         <v>74</v>
@@ -15589,7 +18007,7 @@
         <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C351" t="s">
         <v>77</v>
@@ -15613,7 +18031,7 @@
         <v>16</v>
       </c>
       <c r="B352" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C352" t="s">
         <v>72</v>
@@ -15637,7 +18055,7 @@
         <v>11</v>
       </c>
       <c r="B353" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C353" t="s">
         <v>81</v>
@@ -15661,7 +18079,7 @@
         <v>3</v>
       </c>
       <c r="B354" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C354" t="s">
         <v>52</v>
@@ -15685,7 +18103,7 @@
         <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C355" t="s">
         <v>55</v>
@@ -15709,7 +18127,7 @@
         <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C356" t="s">
         <v>54</v>
@@ -15733,7 +18151,7 @@
         <v>3</v>
       </c>
       <c r="B357" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C357" t="s">
         <v>50</v>
@@ -15757,7 +18175,7 @@
         <v>3</v>
       </c>
       <c r="B358" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C358" t="s">
         <v>53</v>
@@ -15781,7 +18199,7 @@
         <v>5</v>
       </c>
       <c r="B359" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C359" t="s">
         <v>51</v>
@@ -15805,7 +18223,7 @@
         <v>16</v>
       </c>
       <c r="B360" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C360" t="s">
         <v>60</v>
@@ -15829,7 +18247,7 @@
         <v>11</v>
       </c>
       <c r="B361" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C361" t="s">
         <v>56</v>
@@ -15853,7 +18271,7 @@
         <v>3</v>
       </c>
       <c r="B362" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C362" t="s">
         <v>59</v>
@@ -15877,7 +18295,7 @@
         <v>11</v>
       </c>
       <c r="B363" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C363" t="s">
         <v>57</v>
@@ -15901,7 +18319,7 @@
         <v>16</v>
       </c>
       <c r="B364" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C364" t="s">
         <v>62</v>
@@ -15925,7 +18343,7 @@
         <v>11</v>
       </c>
       <c r="B365" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C365" t="s">
         <v>61</v>
@@ -15949,7 +18367,7 @@
         <v>5</v>
       </c>
       <c r="B366" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C366" t="s">
         <v>58</v>
@@ -15973,7 +18391,7 @@
         <v>3</v>
       </c>
       <c r="B367" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C367" t="s">
         <v>68</v>
@@ -15997,7 +18415,7 @@
         <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C368" t="s">
         <v>66</v>
@@ -16021,7 +18439,7 @@
         <v>16</v>
       </c>
       <c r="B369" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C369" t="s">
         <v>67</v>
@@ -16045,7 +18463,7 @@
         <v>16</v>
       </c>
       <c r="B370" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C370" t="s">
         <v>63</v>
@@ -16069,7 +18487,7 @@
         <v>11</v>
       </c>
       <c r="B371" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C371" t="s">
         <v>65</v>
@@ -16093,7 +18511,7 @@
         <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C372" t="s">
         <v>69</v>
@@ -16117,7 +18535,7 @@
         <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C373" t="s">
         <v>64</v>
@@ -16141,7 +18559,7 @@
         <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C374" t="s">
         <v>71</v>
@@ -16165,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="B375" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C375" t="s">
         <v>70</v>
@@ -16189,7 +18607,7 @@
         <v>16</v>
       </c>
       <c r="B376" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C376" t="s">
         <v>80</v>
@@ -16213,7 +18631,7 @@
         <v>16</v>
       </c>
       <c r="B377" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C377" t="s">
         <v>74</v>
@@ -16237,7 +18655,7 @@
         <v>5</v>
       </c>
       <c r="B378" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C378" t="s">
         <v>75</v>
@@ -16261,7 +18679,7 @@
         <v>16</v>
       </c>
       <c r="B379" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C379" t="s">
         <v>76</v>
@@ -16285,7 +18703,7 @@
         <v>5</v>
       </c>
       <c r="B380" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C380" t="s">
         <v>73</v>
@@ -16309,7 +18727,7 @@
         <v>11</v>
       </c>
       <c r="B381" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C381" t="s">
         <v>78</v>
@@ -16333,7 +18751,7 @@
         <v>11</v>
       </c>
       <c r="B382" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C382" t="s">
         <v>77</v>
@@ -16357,7 +18775,7 @@
         <v>11</v>
       </c>
       <c r="B383" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C383" t="s">
         <v>79</v>
@@ -16381,7 +18799,7 @@
         <v>16</v>
       </c>
       <c r="B384" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C384" t="s">
         <v>72</v>
@@ -16405,7 +18823,7 @@
         <v>11</v>
       </c>
       <c r="B385" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C385" t="s">
         <v>81</v>

--- a/Restaurant Sales Project/pizza place sales dashboard.xlsx
+++ b/Restaurant Sales Project/pizza place sales dashboard.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-sql/Restaurant Sales Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5195E0E-EB2C-4DAC-856D-1825C948A08C}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E32BA23-EF43-40F3-A5DE-7F60FA1684CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="data_2" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="pizza_place_dashboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="data_3" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="pizza_place_dashboard" sheetId="3" r:id="rId1"/>
+    <sheet name="data_1" sheetId="1" r:id="rId2"/>
+    <sheet name="data_2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="data_3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">data_3!$A$1:$F$385</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="156">
   <si>
     <t>category</t>
   </si>
@@ -517,6 +517,27 @@
   <si>
     <t>XXL</t>
   </si>
+  <si>
+    <t>Choose a category:</t>
+  </si>
+  <si>
+    <t>Pizza Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a month: </t>
+  </si>
+  <si>
+    <t>Orders (2015 Total)</t>
+  </si>
+  <si>
+    <t>Orders (By Month)</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 10 Most and Least Popular Pizzas </t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +549,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,8 +720,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,6 +934,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1067,7 +1103,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1105,6 +1141,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1537,612 +1577,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average orders by time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of day </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:alpha val="93000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-181E-4EF8-9247-02FC16D6CDA9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-181E-4EF8-9247-02FC16D6CDA9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-181E-4EF8-9247-02FC16D6CDA9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-181E-4EF8-9247-02FC16D6CDA9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_2!$A$28:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_2!$B$28:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-181E-4EF8-9247-02FC16D6CDA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="104538272"/>
-        <c:axId val="105935024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104538272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="23"/>
-          <c:min val="9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>Hour of Day (24 hour time)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105935024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="105935024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>Average orders placed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104538272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2876,7 +2310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3242,7 +2676,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3592,7 +3026,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4029,46 +3463,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4614,522 +4008,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5632,7 +4510,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6119,6 +4997,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6654,509 +6035,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -7167,8 +6045,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -7192,44 +6070,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FE6E0F-B2C9-4971-A1FB-D2182C8625F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7267,7 +6107,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7275,14 +6115,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7305,13 +6145,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
@@ -7343,7 +6183,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7462,10 +6302,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7764,6 +6600,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L24" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="L25" t="str" cm="1">
+        <f t="array" ref="L25:L34">_xlfn.IFS($M$22="Top",_xlfn.XLOOKUP(LARGE(orders,_xlfn.SEQUENCE(10)),orders,pizza_name), $M$22="Bottom",_xlfn.XLOOKUP(SMALL(orders,_xlfn.SEQUENCE(10)),orders,pizza_name))</f>
+        <v>The Classic Deluxe Pizza</v>
+      </c>
+      <c r="M25" s="22">
+        <f>_xlfn.XLOOKUP($L25,pizza_name,orders)</f>
+        <v>2453</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" t="str" cm="1">
+        <f t="array" ref="O25:O34">_xlfn.IFS($M$22="Top",_xlfn.XLOOKUP(LARGE(_xlfn._xlws.FILTER(sales,month=$P$22),_xlfn.SEQUENCE(10)),sales,pizzatype), $M$22="Bottom",_xlfn.XLOOKUP(SMALL(_xlfn._xlws.FILTER(sales,month=$P$22),_xlfn.SEQUENCE(10)),sales,pizzatype))</f>
+        <v>The Pepperoni Pizza</v>
+      </c>
+      <c r="P25" cm="1">
+        <f t="array" ref="P25">_xlfn.XLOOKUP($O25,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="L26" t="str">
+        <v>The Barbecue Chicken Pizza</v>
+      </c>
+      <c r="M26" s="22">
+        <f>_xlfn.XLOOKUP($L26,pizza_name,orders)</f>
+        <v>2432</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" t="str">
+        <v>The Barbecue Chicken Pizza</v>
+      </c>
+      <c r="P26" cm="1">
+        <f t="array" ref="P26">_xlfn.XLOOKUP($O26,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="L27" t="str">
+        <v>The Hawaiian Pizza</v>
+      </c>
+      <c r="M27" s="22">
+        <f>_xlfn.XLOOKUP($L27,pizza_name,orders)</f>
+        <v>2422</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" t="str">
+        <v>The Classic Deluxe Pizza</v>
+      </c>
+      <c r="P27" cm="1">
+        <f t="array" ref="P27">_xlfn.XLOOKUP($O27,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="L28" t="str">
+        <v>The Pepperoni Pizza</v>
+      </c>
+      <c r="M28" s="22">
+        <f>_xlfn.XLOOKUP($L28,pizza_name,orders)</f>
+        <v>2418</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" t="str">
+        <v>The Thai Chicken Pizza</v>
+      </c>
+      <c r="P28" cm="1">
+        <f t="array" ref="P28">_xlfn.XLOOKUP($O28,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="L29" t="str">
+        <v>The Thai Chicken Pizza</v>
+      </c>
+      <c r="M29" s="22">
+        <f>_xlfn.XLOOKUP($L29,pizza_name,orders)</f>
+        <v>2371</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" t="str">
+        <v>The Hawaiian Pizza</v>
+      </c>
+      <c r="P29" cm="1">
+        <f t="array" ref="P29">_xlfn.XLOOKUP($O29,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7"/>
+      <c r="L30" t="str">
+        <v>The California Chicken Pizza</v>
+      </c>
+      <c r="M30" s="22">
+        <f>_xlfn.XLOOKUP($L30,pizza_name,orders)</f>
+        <v>2370</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" t="str">
+        <v>The Thai Chicken Pizza</v>
+      </c>
+      <c r="P30" cm="1">
+        <f t="array" ref="P30">_xlfn.XLOOKUP($O30,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="L31" t="str">
+        <v>The Sicilian Pizza</v>
+      </c>
+      <c r="M31" s="22">
+        <f>_xlfn.XLOOKUP($L31,pizza_name,orders)</f>
+        <v>1938</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" t="str">
+        <v>The Classic Deluxe Pizza</v>
+      </c>
+      <c r="P31" cm="1">
+        <f t="array" ref="P31">_xlfn.XLOOKUP($O31,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="L32" t="str">
+        <v>The Spicy Italian Pizza</v>
+      </c>
+      <c r="M32" s="22">
+        <f>_xlfn.XLOOKUP($L32,pizza_name,orders)</f>
+        <v>1924</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" t="str">
+        <v>The Spicy Italian Pizza</v>
+      </c>
+      <c r="P32" cm="1">
+        <f t="array" ref="P32">_xlfn.XLOOKUP($O32,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="7"/>
+      <c r="L33" t="str">
+        <v>The Southwest Chicken Pizza</v>
+      </c>
+      <c r="M33" s="22">
+        <f>_xlfn.XLOOKUP($L33,pizza_name,orders)</f>
+        <v>1917</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" t="str">
+        <v>The Four Cheese Pizza</v>
+      </c>
+      <c r="P33" cm="1">
+        <f t="array" ref="P33">_xlfn.XLOOKUP($O33,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="L34" t="str">
+        <v>The Big Meat Pizza</v>
+      </c>
+      <c r="M34" s="22">
+        <f>_xlfn.XLOOKUP($L34,pizza_name,orders)</f>
+        <v>1914</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" t="str">
+        <v>The Big Meat Pizza</v>
+      </c>
+      <c r="P34" cm="1">
+        <f t="array" ref="P34">_xlfn.XLOOKUP($O34,_xlfn._xlws.FILTER([0]!pizzatype,month=pizza_place_dashboard!$P$22),_xlfn._xlws.FILTER([0]!sales,month=pizza_place_dashboard!$P$22))</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22" xr:uid="{AE40A686-58E4-4E85-ABD0-FCA0837C94B7}">
+      <formula1>"Top,Bottom"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Sheet1!$L$2:$L$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>I25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4949646-5737-4417-B43C-D83DCEE8CCD2}">
+          <x14:formula1>
+            <xm:f>data_3!$I$2:$I$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>P22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -8260,7 +7567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -8685,277 +7992,6 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>Sheet1!$L$2:$L$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>I25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9556,7 +8592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA1C2A-DE87-4517-B2ED-FAF2024B8244}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A362" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Restaurant Sales Project/pizza place sales dashboard.xlsx
+++ b/Restaurant Sales Project/pizza place sales dashboard.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-sql/Restaurant Sales Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E32BA23-EF43-40F3-A5DE-7F60FA1684CE}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:40009_{022BF68F-FDDD-45C2-A199-6F31013BF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8952184F-772B-4DB8-B4F2-A72836BFEB81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pizza_place_dashboard" sheetId="3" r:id="rId1"/>
-    <sheet name="data_1" sheetId="1" r:id="rId2"/>
-    <sheet name="data_2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="data_3" sheetId="4" r:id="rId5"/>
+    <sheet name="data_1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="data_2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="data_3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">data_3!$A$1:$F$385</definedName>
@@ -6304,6 +6304,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6761,7 +6765,7 @@
         <v>The Classic Deluxe Pizza</v>
       </c>
       <c r="M25" s="22">
-        <f>_xlfn.XLOOKUP($L25,pizza_name,orders)</f>
+        <f t="shared" ref="M25:M34" si="0">_xlfn.XLOOKUP($L25,pizza_name,orders)</f>
         <v>2453</v>
       </c>
       <c r="N25" s="21"/>
@@ -6788,7 +6792,7 @@
         <v>The Barbecue Chicken Pizza</v>
       </c>
       <c r="M26" s="22">
-        <f>_xlfn.XLOOKUP($L26,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>2432</v>
       </c>
       <c r="N26" s="21"/>
@@ -6814,7 +6818,7 @@
         <v>The Hawaiian Pizza</v>
       </c>
       <c r="M27" s="22">
-        <f>_xlfn.XLOOKUP($L27,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>2422</v>
       </c>
       <c r="N27" s="21"/>
@@ -6841,7 +6845,7 @@
         <v>The Pepperoni Pizza</v>
       </c>
       <c r="M28" s="22">
-        <f>_xlfn.XLOOKUP($L28,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>2418</v>
       </c>
       <c r="N28" s="21"/>
@@ -6867,7 +6871,7 @@
         <v>The Thai Chicken Pizza</v>
       </c>
       <c r="M29" s="22">
-        <f>_xlfn.XLOOKUP($L29,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>2371</v>
       </c>
       <c r="N29" s="21"/>
@@ -6892,7 +6896,7 @@
         <v>The California Chicken Pizza</v>
       </c>
       <c r="M30" s="22">
-        <f>_xlfn.XLOOKUP($L30,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>2370</v>
       </c>
       <c r="N30" s="21"/>
@@ -6917,7 +6921,7 @@
         <v>The Sicilian Pizza</v>
       </c>
       <c r="M31" s="22">
-        <f>_xlfn.XLOOKUP($L31,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>1938</v>
       </c>
       <c r="N31" s="21"/>
@@ -6941,7 +6945,7 @@
         <v>The Spicy Italian Pizza</v>
       </c>
       <c r="M32" s="22">
-        <f>_xlfn.XLOOKUP($L32,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>1924</v>
       </c>
       <c r="N32" s="21"/>
@@ -6960,7 +6964,7 @@
         <v>The Southwest Chicken Pizza</v>
       </c>
       <c r="M33" s="22">
-        <f>_xlfn.XLOOKUP($L33,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>1917</v>
       </c>
       <c r="N33" s="21"/>
@@ -6978,7 +6982,7 @@
         <v>The Big Meat Pizza</v>
       </c>
       <c r="M34" s="22">
-        <f>_xlfn.XLOOKUP($L34,pizza_name,orders)</f>
+        <f t="shared" si="0"/>
         <v>1914</v>
       </c>
       <c r="N34" s="21"/>
@@ -7572,7 +7576,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8000,7 +8004,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8593,7 +8597,7 @@
   <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
